--- a/ressource/labyrinthe.xlsx
+++ b/ressource/labyrinthe.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33633\Desktop\macgyver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\macgyver\ressource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA43523F-38E6-4848-9B1A-147074AEA09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ABFA47-D8DF-4A21-8849-F9E5F19873C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="labyrinthe" sheetId="1" r:id="rId1"/>
+    <sheet name="labyrinthe1" sheetId="1" r:id="rId1"/>
     <sheet name="labyrinthe2" sheetId="3" r:id="rId2"/>
     <sheet name="labyrinthe vierge" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
